--- a/src/main/resources/190-wanxin-p2p/account-service_structure.xlsx
+++ b/src/main/resources/190-wanxin-p2p/account-service_structure.xlsx
@@ -238,7 +238,7 @@
     <t>com.wanxin.account.common.GlobalExceptionHandler</t>
   </si>
   <si>
-    <t>exceptionGet(javax.servlet.http.HttpServletRequest)</t>
+    <t>exceptionGet(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.Exception)</t>
   </si>
   <si>
     <t>com.wanxin.common.domain.RestResponse</t>
